--- a/JavaSurvey/Documentation/210_Gantt-Diagramm.110.xlsx
+++ b/JavaSurvey/Documentation/210_Gantt-Diagramm.110.xlsx
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,7 +382,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -449,6 +456,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -458,13 +488,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,68 +548,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -857,7 +866,7 @@
   <dimension ref="A1:CG68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BL26" sqref="BL26"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +909,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
@@ -911,109 +920,109 @@
       <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="64">
+      <c r="F1" s="53">
         <v>6.2</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="64">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="53">
         <v>7.2</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="64">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="53">
         <v>8.1999999999999993</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="53">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64">
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="53">
         <v>19.2</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="64">
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="53">
         <v>20.2</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="64">
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="53">
         <v>21.2</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="64">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="53">
         <v>22.2</v>
       </c>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="64">
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="53">
         <v>23.2</v>
       </c>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="64">
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="54"/>
+      <c r="BU1" s="54"/>
+      <c r="BV1" s="54"/>
+      <c r="BW1" s="54"/>
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="53">
         <v>26.2</v>
       </c>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="66"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="55"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
@@ -1266,21 +1275,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="U3" s="11"/>
@@ -1302,13 +1311,17 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="39" t="s">
         <v>29</v>
       </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="13"/>
       <c r="U4" s="13"/>
       <c r="AC4" s="13"/>
@@ -1321,13 +1334,15 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="40" t="s">
         <v>31</v>
       </c>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="13"/>
       <c r="U5" s="13"/>
       <c r="AC5" s="13"/>
@@ -1340,10 +1355,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="39" t="s">
         <v>30</v>
       </c>
@@ -1429,17 +1444,17 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="46" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="15"/>
@@ -1464,11 +1479,11 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="18"/>
@@ -1493,14 +1508,14 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="74" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="41"/>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
@@ -1523,20 +1538,20 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="73" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="71"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="20"/>
       <c r="N10" s="18"/>
       <c r="O10" s="19"/>
@@ -1612,32 +1627,32 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
+      <c r="A11" s="59">
         <v>3</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="9"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="9"/>
       <c r="AK11" s="11"/>
@@ -1655,10 +1670,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="39" t="s">
         <v>29</v>
       </c>
@@ -1671,13 +1686,18 @@
       <c r="BI12" s="13"/>
       <c r="BQ12" s="13"/>
       <c r="BY12" s="13"/>
+      <c r="BZ12" s="80"/>
+      <c r="CA12" s="80"/>
+      <c r="CB12" s="80"/>
+      <c r="CC12" s="80"/>
+      <c r="CD12" s="80"/>
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="40" t="s">
         <v>31</v>
       </c>
@@ -1698,10 +1718,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="39" t="s">
         <v>30</v>
       </c>
@@ -1769,9 +1789,9 @@
       <c r="BO14" s="12"/>
       <c r="BP14" s="12"/>
       <c r="BQ14" s="13"/>
-      <c r="BR14" s="12"/>
-      <c r="BS14" s="12"/>
-      <c r="BT14" s="12"/>
+      <c r="BR14" s="80"/>
+      <c r="BS14" s="80"/>
+      <c r="BT14" s="80"/>
       <c r="BU14" s="12"/>
       <c r="BV14" s="12"/>
       <c r="BW14" s="12"/>
@@ -1787,17 +1807,17 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61">
+      <c r="A15" s="59">
         <v>4</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="72" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="15"/>
@@ -1808,11 +1828,11 @@
       <c r="AC15" s="17"/>
       <c r="AD15" s="15"/>
       <c r="AK15" s="17"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="75"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="15"/>
       <c r="BA15" s="17"/>
@@ -1826,11 +1846,11 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="73" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="18"/>
@@ -1843,7 +1863,8 @@
       <c r="AK16" s="20"/>
       <c r="AL16" s="18"/>
       <c r="AS16" s="20"/>
-      <c r="AT16" s="18"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="80"/>
       <c r="BA16" s="20"/>
       <c r="BB16" s="18"/>
       <c r="BI16" s="20"/>
@@ -1855,11 +1876,11 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="74" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="48" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="18"/>
@@ -1884,11 +1905,11 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="73" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="47" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="18"/>
@@ -1931,9 +1952,9 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
       <c r="AS18" s="20"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
+      <c r="AT18" s="80"/>
+      <c r="AU18" s="80"/>
+      <c r="AV18" s="80"/>
       <c r="AW18" s="19"/>
       <c r="AX18" s="19"/>
       <c r="AY18" s="19"/>
@@ -1973,16 +1994,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61">
+      <c r="A19" s="59">
         <v>5</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="38" t="s">
         <v>28</v>
       </c>
@@ -2008,10 +2029,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
@@ -2021,16 +2042,17 @@
       <c r="AK20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="BA20" s="13"/>
+      <c r="BB20" s="80"/>
       <c r="BI20" s="13"/>
       <c r="BQ20" s="13"/>
       <c r="BY20" s="13"/>
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="40" t="s">
         <v>31</v>
       </c>
@@ -2049,10 +2071,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="39" t="s">
         <v>30</v>
       </c>
@@ -2104,8 +2126,8 @@
       <c r="AY22" s="12"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="13"/>
-      <c r="BB22" s="12"/>
-      <c r="BC22" s="12"/>
+      <c r="BB22" s="80"/>
+      <c r="BC22" s="80"/>
       <c r="BD22" s="12"/>
       <c r="BE22" s="12"/>
       <c r="BF22" s="12"/>
@@ -2138,17 +2160,17 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
+      <c r="A23" s="59">
         <v>6</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="72" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="46" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="15"/>
@@ -2163,9 +2185,9 @@
       <c r="AS23" s="17"/>
       <c r="AT23" s="15"/>
       <c r="BA23" s="17"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="75"/>
-      <c r="BD23" s="75"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
       <c r="BI23" s="17"/>
       <c r="BJ23" s="15"/>
       <c r="BQ23" s="17"/>
@@ -2175,11 +2197,11 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="73" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="18"/>
@@ -2204,11 +2226,11 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="74" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="48" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="18"/>
@@ -2223,7 +2245,7 @@
       <c r="AS25" s="20"/>
       <c r="AT25" s="18"/>
       <c r="BA25" s="20"/>
-      <c r="BB25" s="76"/>
+      <c r="BB25" s="50"/>
       <c r="BC25" s="41"/>
       <c r="BD25" s="41"/>
       <c r="BI25" s="20"/>
@@ -2235,11 +2257,11 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="73" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="47" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="18"/>
@@ -2324,16 +2346,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61">
+      <c r="A27" s="59">
         <v>7</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="38" t="s">
         <v>28</v>
       </c>
@@ -2345,16 +2367,16 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="9"/>
       <c r="AK27" s="11"/>
-      <c r="AQ27" s="75"/>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="78"/>
-      <c r="AX27" s="75"/>
-      <c r="AY27" s="75"/>
-      <c r="AZ27" s="75"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="52"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
       <c r="BA27" s="11"/>
-      <c r="BE27" s="75"/>
-      <c r="BF27" s="75"/>
-      <c r="BG27" s="75"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
       <c r="BI27" s="11"/>
       <c r="BJ27" s="9"/>
       <c r="BQ27" s="11"/>
@@ -2364,10 +2386,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="39" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2397,8 @@
       <c r="U28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AK28" s="13"/>
-      <c r="AS28" s="13"/>
+      <c r="AS28" s="80"/>
+      <c r="AZ28" s="80"/>
       <c r="BA28" s="13"/>
       <c r="BI28" s="13"/>
       <c r="BQ28" s="13"/>
@@ -2383,10 +2406,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="40" t="s">
         <v>31</v>
       </c>
@@ -2406,10 +2429,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="39" t="s">
         <v>30</v>
       </c>
@@ -2453,9 +2476,9 @@
       <c r="AQ30" s="12"/>
       <c r="AR30" s="12"/>
       <c r="AS30" s="13"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="12"/>
+      <c r="AT30" s="80"/>
+      <c r="AU30" s="80"/>
+      <c r="AV30" s="80"/>
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
       <c r="AY30" s="12"/>
@@ -2495,17 +2518,17 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61">
+      <c r="A31" s="59">
         <v>8</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="72" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="46" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="15"/>
@@ -2518,10 +2541,10 @@
       <c r="AK31" s="17"/>
       <c r="AL31" s="15"/>
       <c r="AS31" s="17"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="75"/>
-      <c r="AV31" s="75"/>
-      <c r="AW31" s="75"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
       <c r="BA31" s="17"/>
       <c r="BB31" s="15"/>
       <c r="BI31" s="17"/>
@@ -2533,11 +2556,11 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="73" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="18"/>
@@ -2553,6 +2576,8 @@
       <c r="AT32" s="18"/>
       <c r="BA32" s="20"/>
       <c r="BB32" s="18"/>
+      <c r="BD32" s="80"/>
+      <c r="BE32" s="80"/>
       <c r="BI32" s="20"/>
       <c r="BJ32" s="18"/>
       <c r="BQ32" s="20"/>
@@ -2562,11 +2587,11 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="74" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="48" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="18"/>
@@ -2579,7 +2604,7 @@
       <c r="AK33" s="20"/>
       <c r="AL33" s="18"/>
       <c r="AS33" s="20"/>
-      <c r="AT33" s="76"/>
+      <c r="AT33" s="50"/>
       <c r="AU33" s="41"/>
       <c r="AV33" s="41"/>
       <c r="AW33" s="41"/>
@@ -2594,11 +2619,11 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="73" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="47" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="18"/>
@@ -2653,10 +2678,10 @@
       <c r="BC34" s="19"/>
       <c r="BD34" s="19"/>
       <c r="BE34" s="19"/>
-      <c r="BF34" s="19"/>
-      <c r="BG34" s="19"/>
-      <c r="BH34" s="19"/>
-      <c r="BI34" s="20"/>
+      <c r="BF34" s="80"/>
+      <c r="BG34" s="80"/>
+      <c r="BH34" s="80"/>
+      <c r="BI34" s="80"/>
       <c r="BJ34" s="18"/>
       <c r="BK34" s="19"/>
       <c r="BL34" s="19"/>
@@ -2683,16 +2708,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61">
+      <c r="A35" s="59">
         <v>9</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="38" t="s">
         <v>28</v>
       </c>
@@ -2714,15 +2739,15 @@
       <c r="BQ35" s="11"/>
       <c r="BR35" s="9"/>
       <c r="BY35" s="11"/>
-      <c r="BZ35" s="77"/>
-      <c r="CA35" s="75"/>
+      <c r="BZ35" s="51"/>
+      <c r="CA35" s="49"/>
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="39" t="s">
         <v>29</v>
       </c>
@@ -2738,10 +2763,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="40" t="s">
         <v>31</v>
       </c>
@@ -2762,10 +2787,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="39" t="s">
         <v>30</v>
       </c>
@@ -2851,17 +2876,17 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61">
+      <c r="A39" s="59">
         <v>10</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="72" t="s">
+      <c r="D39" s="64"/>
+      <c r="E39" s="46" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="15"/>
@@ -2870,11 +2895,11 @@
       <c r="U39" s="17"/>
       <c r="V39" s="15"/>
       <c r="AC39" s="17"/>
-      <c r="AD39" s="77"/>
-      <c r="AE39" s="75"/>
-      <c r="AF39" s="75"/>
-      <c r="AG39" s="75"/>
-      <c r="AH39" s="75"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
       <c r="AK39" s="17"/>
       <c r="AL39" s="15"/>
       <c r="AS39" s="17"/>
@@ -2890,11 +2915,11 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="73" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="18"/>
@@ -2903,7 +2928,8 @@
       <c r="U40" s="20"/>
       <c r="V40" s="18"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="18"/>
+      <c r="AD40" s="80"/>
+      <c r="AE40" s="80"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="18"/>
       <c r="AS40" s="20"/>
@@ -2919,11 +2945,11 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="74" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="48" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="18"/>
@@ -2948,11 +2974,11 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="73" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="47" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="18"/>
@@ -2987,9 +3013,9 @@
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
       <c r="AK42" s="20"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
+      <c r="AL42" s="80"/>
+      <c r="AM42" s="80"/>
+      <c r="AN42" s="80"/>
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
@@ -3037,12 +3063,12 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61">
+      <c r="A43" s="59">
         <v>11</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="38" t="s">
         <v>4</v>
       </c>
@@ -3068,10 +3094,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="39" t="s">
         <v>6</v>
       </c>
@@ -3087,10 +3113,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="40" t="s">
         <v>7</v>
       </c>
@@ -3106,10 +3132,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="39" t="s">
         <v>8</v>
       </c>
@@ -3195,12 +3221,12 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61">
+      <c r="A47" s="59">
         <v>12</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="48"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="25" t="s">
         <v>4</v>
       </c>
@@ -3226,10 +3252,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="26" t="s">
         <v>6</v>
       </c>
@@ -3255,10 +3281,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="26" t="s">
         <v>7</v>
       </c>
@@ -3284,10 +3310,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="42" t="s">
         <v>8</v>
       </c>
@@ -3373,12 +3399,12 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61">
+      <c r="A51" s="59">
         <v>13</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="38" t="s">
         <v>4</v>
       </c>
@@ -3404,10 +3430,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="39" t="s">
         <v>6</v>
       </c>
@@ -3423,10 +3449,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="40" t="s">
         <v>7</v>
       </c>
@@ -3442,10 +3468,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="39" t="s">
         <v>8</v>
       </c>
@@ -3531,12 +3557,12 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61">
+      <c r="A55" s="59">
         <v>14</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="48"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="25" t="s">
         <v>4</v>
       </c>
@@ -3562,10 +3588,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
       <c r="E56" s="26" t="s">
         <v>6</v>
       </c>
@@ -3591,10 +3617,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
       <c r="E57" s="26" t="s">
         <v>7</v>
       </c>
@@ -3620,10 +3646,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
       <c r="E58" s="42" t="s">
         <v>8</v>
       </c>
@@ -3709,12 +3735,12 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61">
+      <c r="A59" s="59">
         <v>15</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="38" t="s">
         <v>4</v>
       </c>
@@ -3740,10 +3766,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="39" t="s">
         <v>6</v>
       </c>
@@ -3759,10 +3785,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="40" t="s">
         <v>7</v>
       </c>
@@ -3778,10 +3804,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="39" t="s">
         <v>8</v>
       </c>
@@ -3867,12 +3893,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61">
+      <c r="A63" s="59">
         <v>16</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="48"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="25" t="s">
         <v>4</v>
       </c>
@@ -3898,10 +3924,10 @@
       <c r="CG63" s="17"/>
     </row>
     <row r="64" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="26" t="s">
         <v>6</v>
       </c>
@@ -3927,10 +3953,10 @@
       <c r="CG64" s="20"/>
     </row>
     <row r="65" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="57"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="66"/>
       <c r="E65" s="26" t="s">
         <v>7</v>
       </c>
@@ -3956,10 +3982,10 @@
       <c r="CG65" s="20"/>
     </row>
     <row r="66" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="42" t="s">
         <v>30</v>
       </c>
@@ -4045,12 +4071,12 @@
       <c r="CG66" s="20"/>
     </row>
     <row r="67" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="51" t="s">
+      <c r="A67" s="73"/>
+      <c r="B67" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
       <c r="E67" s="29"/>
       <c r="F67" s="30"/>
       <c r="G67" s="31"/>
@@ -4136,10 +4162,10 @@
       <c r="CG67" s="36"/>
     </row>
     <row r="68" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
       <c r="E68" s="32"/>
       <c r="F68" s="33"/>
       <c r="G68" s="34"/>
@@ -4224,46 +4250,15 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
-    <mergeCell ref="C43:D46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:D66"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A66"/>
@@ -4277,15 +4272,46 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:D66"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C43:D46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
